--- a/EYZWG9_0402/eyzwg9.xlsx
+++ b/EYZWG9_0402/eyzwg9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FACB8F3B-7939-4F2F-B263-DF67436FA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AC06A-BBF3-4101-AE07-E0BF043BBD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D22907EF-38F9-48C3-BFE1-D1420E77943D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
   <si>
     <t>1 a.,</t>
   </si>
@@ -114,20 +114,62 @@
     <t>Érkezés</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>Várakozási idő</t>
   </si>
   <si>
     <t>Válaszidő</t>
+  </si>
+  <si>
+    <t>Körülfordulási idő</t>
+  </si>
+  <si>
+    <t>(36,4-0,4)/36,4= 100 %</t>
+  </si>
+  <si>
+    <t>(25+27+29+25)/4 =26,5 ms</t>
+  </si>
+  <si>
+    <t>(16 + 18 + 20 + 16) / 4 = 17,5 ms</t>
+  </si>
+  <si>
+    <t>(0 + 1 + 6 + 9) / 4 =  4 ms</t>
+  </si>
+  <si>
+    <t>P2,P3,P4</t>
+  </si>
+  <si>
+    <t>P1,P3,P4</t>
+  </si>
+  <si>
+    <t>P1,P2,P4</t>
+  </si>
+  <si>
+    <t>P1,P4</t>
+  </si>
+  <si>
+    <t>P1,P3</t>
+  </si>
+  <si>
+    <t>P2,P4</t>
+  </si>
+  <si>
+    <t>P1,P5</t>
+  </si>
+  <si>
+    <t>P1,P2</t>
+  </si>
+  <si>
+    <t>P1,P2,P3</t>
+  </si>
+  <si>
+    <t>Gantt- diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +202,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +262,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -331,11 +407,102 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -368,80 +535,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -761,27 +974,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D6AB8A-8C10-4DE1-B7A2-EA0BFA58B431}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -789,41 +1011,41 @@
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="22"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="22"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -841,44 +1063,44 @@
       <c r="J4" s="7">
         <v>36</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="22"/>
+      <c r="O4" s="18"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="26">
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="26">
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -886,17 +1108,17 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="6"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="26">
         <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -907,13 +1129,13 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="28">
         <v>11</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="29">
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -997,20 +1219,20 @@
       <c r="J12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15" t="s">
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16" t="s">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="15" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1031,26 +1253,26 @@
         <v>5</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24" t="s">
+      <c r="N13" s="39"/>
+      <c r="O13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="R13" s="24" t="s">
+      <c r="Q13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="S13" s="24" t="s">
+      <c r="S13" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1109,7 +1331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1126,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -1140,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1154,136 +1376,435 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="2" t="s">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="Q22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="W22" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="48"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="Q23" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>9</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>25</v>
+      </c>
+      <c r="V23" s="3">
+        <v>16</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="Q24" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3">
+        <v>9</v>
+      </c>
+      <c r="T24" s="3">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
+        <v>30</v>
+      </c>
+      <c r="V24" s="3">
+        <v>18</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="32">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="Q25" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="3">
+        <v>6</v>
+      </c>
+      <c r="S25" s="3">
+        <v>9</v>
+      </c>
+      <c r="T25" s="3">
+        <v>12</v>
+      </c>
+      <c r="U25" s="3">
+        <v>35</v>
+      </c>
+      <c r="V25" s="3">
+        <v>20</v>
+      </c>
+      <c r="W25" s="3">
+        <v>6</v>
+      </c>
+      <c r="X25" s="32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="48"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="Q26" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="E22" s="30" t="s">
+      <c r="R26" s="28">
+        <v>11</v>
+      </c>
+      <c r="S26" s="28">
+        <v>9</v>
+      </c>
+      <c r="T26" s="28">
+        <v>20</v>
+      </c>
+      <c r="U26" s="28">
+        <v>36</v>
+      </c>
+      <c r="V26" s="28">
+        <v>16</v>
+      </c>
+      <c r="W26" s="33">
+        <v>9</v>
+      </c>
+      <c r="X26" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C30" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="39" t="s">
+      <c r="D30" s="40">
+        <v>0</v>
+      </c>
+      <c r="E30" s="40">
+        <v>4</v>
+      </c>
+      <c r="F30" s="40">
+        <v>8</v>
+      </c>
+      <c r="G30" s="40">
+        <v>12</v>
+      </c>
+      <c r="H30" s="40">
+        <v>16</v>
+      </c>
+      <c r="I30" s="40">
+        <v>20</v>
+      </c>
+      <c r="J30" s="40">
         <v>24</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="K30" s="40">
         <v>25</v>
       </c>
-      <c r="J22" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="E23" s="33" t="s">
+      <c r="L30" s="40">
+        <v>29</v>
+      </c>
+      <c r="M30" s="40">
+        <v>30</v>
+      </c>
+      <c r="N30" s="40">
+        <v>34</v>
+      </c>
+      <c r="O30" s="40">
+        <v>35</v>
+      </c>
+      <c r="P30" s="41">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C31" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
-        <v>9</v>
-      </c>
-      <c r="H23" s="41">
-        <v>0</v>
-      </c>
-      <c r="I23" s="41">
-        <v>25</v>
-      </c>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="21"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="E24" s="33" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C32" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="34">
-        <v>3</v>
-      </c>
-      <c r="G24" s="34">
-        <v>9</v>
-      </c>
-      <c r="H24" s="41">
+      <c r="D32" s="46"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="47"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C33" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="41">
-        <v>30</v>
-      </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="27"/>
-      <c r="E25" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="34">
-        <v>6</v>
-      </c>
-      <c r="G25" s="34">
-        <v>9</v>
-      </c>
-      <c r="H25" s="41">
-        <v>12</v>
-      </c>
-      <c r="I25" s="41">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="47"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C34" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="63"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C35" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="21"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="E26" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="37">
-        <v>11</v>
-      </c>
-      <c r="G26" s="37">
-        <v>9</v>
-      </c>
-      <c r="H26" s="42">
-        <v>20</v>
-      </c>
-      <c r="I26" s="42">
+      <c r="H35" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="43"/>
+      <c r="I35" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="N35" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="60" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/EYZWG9_0402/eyzwg9.xlsx
+++ b/EYZWG9_0402/eyzwg9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782AC06A-BBF3-4101-AE07-E0BF043BBD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332F9712-85C0-4689-9F8F-9CFCBEB3F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{D22907EF-38F9-48C3-BFE1-D1420E77943D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>1 a.,</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Körülfordulási idő</t>
   </si>
   <si>
-    <t>(36,4-0,4)/36,4= 100 %</t>
-  </si>
-  <si>
     <t>(25+27+29+25)/4 =26,5 ms</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>P2,P4</t>
   </si>
   <si>
-    <t>P1,P5</t>
-  </si>
-  <si>
     <t>P1,P2</t>
   </si>
   <si>
@@ -163,6 +157,9 @@
   </si>
   <si>
     <t>Gantt- diagram</t>
+  </si>
+  <si>
+    <t>(36,4-0,4)/36,4= 98,9 %</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -592,42 +589,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -635,9 +607,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -653,6 +622,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -976,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D6AB8A-8C10-4DE1-B7A2-EA0BFA58B431}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="59"/>
       <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1219,16 +1209,16 @@
       <c r="J12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="36" t="s">
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="Q12" s="36"/>
+      <c r="Q12" s="57"/>
       <c r="R12" s="14" t="s">
         <v>4</v>
       </c>
@@ -1256,10 +1246,10 @@
       <c r="L13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="39"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="19" t="s">
         <v>10</v>
       </c>
@@ -1377,47 +1367,21 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="52"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
+      <c r="A22" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="Q22" s="22" t="s">
         <v>23</v>
       </c>
@@ -1444,23 +1408,20 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="B23" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="Q23" s="25" t="s">
         <v>2</v>
       </c>
@@ -1487,23 +1448,20 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
+      <c r="B24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="Q24" s="25" t="s">
         <v>3</v>
       </c>
@@ -1530,23 +1488,20 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
+      <c r="B25" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="Q25" s="25" t="s">
         <v>4</v>
       </c>
@@ -1573,23 +1528,20 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="B26" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="Q26" s="27" t="s">
         <v>5</v>
       </c>
@@ -1615,195 +1567,169 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-    </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="35">
         <v>0</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="35">
         <v>4</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="35">
         <v>8</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="35">
         <v>12</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="35">
         <v>16</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="35">
         <v>20</v>
       </c>
-      <c r="J30" s="40">
+      <c r="J30" s="35">
         <v>24</v>
       </c>
-      <c r="K30" s="40">
+      <c r="K30" s="35">
         <v>25</v>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="35">
         <v>29</v>
       </c>
-      <c r="M30" s="40">
+      <c r="M30" s="35">
         <v>30</v>
       </c>
-      <c r="N30" s="40">
+      <c r="N30" s="35">
         <v>34</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="35">
         <v>35</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="36">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="47"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="47"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="47"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="42"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="63"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="53"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="57" t="s">
+      <c r="G35" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="57" t="s">
+      <c r="H35" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="I35" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="I35" s="57" t="s">
+      <c r="J35" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="J35" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="57" t="s">
+      <c r="L35" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="N35" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="57" t="s">
+      <c r="O35" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="50" t="s">
         <v>39</v>
-      </c>
-      <c r="M35" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="N35" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="P35" s="60" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
